--- a/output.xlsx
+++ b/output.xlsx
@@ -13,10 +13,281 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>State/UT</t>
+  </si>
+  <si>
+    <t>General Elector Men</t>
+  </si>
+  <si>
+    <t>General Elector Women</t>
+  </si>
+  <si>
+    <t>General Elector Third Gender</t>
+  </si>
+  <si>
+    <t>General Elector Total</t>
+  </si>
+  <si>
+    <t>NRI Elector Men</t>
+  </si>
+  <si>
+    <t>NRI Elector Women</t>
+  </si>
+  <si>
+    <t>NRI Elector Third Gender</t>
+  </si>
+  <si>
+    <t>NRI Elector Total</t>
+  </si>
+  <si>
+    <t>Service Elector Men</t>
+  </si>
+  <si>
+    <t>Service Elector Women</t>
+  </si>
+  <si>
+    <t>Service Elector Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Additional Info</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>ARUNACHAL PRADESH</t>
+  </si>
+  <si>
+    <t>ASSAM</t>
+  </si>
+  <si>
+    <t>BIHAR</t>
+  </si>
+  <si>
+    <t>CHHATTISGARH</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>GUJARAT</t>
+  </si>
+  <si>
+    <t>HARYANA</t>
+  </si>
+  <si>
+    <t>HIMACHAL PRADESH</t>
+  </si>
+  <si>
+    <t>JAMMU &amp; KASHMIR</t>
+  </si>
+  <si>
+    <t>JHARKHAND</t>
+  </si>
+  <si>
+    <t>KARNATAKA</t>
+  </si>
+  <si>
+    <t>KERALA</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>MAHARASHTHRA</t>
+  </si>
+  <si>
+    <t>MANIPUR</t>
+  </si>
+  <si>
+    <t>MEGHALAYA</t>
+  </si>
+  <si>
+    <t>MIZORAM</t>
+  </si>
+  <si>
+    <t>NAGALAND</t>
+  </si>
+  <si>
+    <t>ODISHA</t>
+  </si>
+  <si>
+    <t>PUNJAB</t>
+  </si>
+  <si>
+    <t>RAJASTHAN</t>
+  </si>
+  <si>
+    <t>SIKKIM</t>
+  </si>
+  <si>
+    <t>TAMIL NADU</t>
+  </si>
+  <si>
+    <t>TRIPURA</t>
+  </si>
+  <si>
+    <t>UTTARAKHAND</t>
+  </si>
+  <si>
+    <t>UTTAR PRADESH</t>
+  </si>
+  <si>
+    <t>WEST BENGAL</t>
+  </si>
+  <si>
+    <t>A &amp; N ISLANDS</t>
+  </si>
+  <si>
+    <t>CHANDIGARH</t>
+  </si>
+  <si>
+    <t>DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t>D &amp; N HAVELI</t>
+  </si>
+  <si>
+    <t>NCT OF DELHI</t>
+  </si>
+  <si>
+    <t>LAKSHADWEEP</t>
+  </si>
+  <si>
+    <t>PUDUCHERRY</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +311,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +629,1641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>17162603</v>
+      </c>
+      <c r="D2">
+        <v>17409676</v>
+      </c>
+      <c r="E2">
+        <v>3146</v>
+      </c>
+      <c r="F2">
+        <v>34575425</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>42267</v>
+      </c>
+      <c r="L2">
+        <v>11053</v>
+      </c>
+      <c r="M2">
+        <v>53320</v>
+      </c>
+      <c r="N2">
+        <v>34628760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>383804</v>
+      </c>
+      <c r="D3">
+        <v>389054</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>772858</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2095</v>
+      </c>
+      <c r="L3">
+        <v>678</v>
+      </c>
+      <c r="M3">
+        <v>2773</v>
+      </c>
+      <c r="N3">
+        <v>775631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>10627005</v>
+      </c>
+      <c r="D4">
+        <v>10004509</v>
+      </c>
+      <c r="E4">
+        <v>377</v>
+      </c>
+      <c r="F4">
+        <v>20631891</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>38001</v>
+      </c>
+      <c r="L4">
+        <v>9809</v>
+      </c>
+      <c r="M4">
+        <v>47810</v>
+      </c>
+      <c r="N4">
+        <v>20679701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>36346421</v>
+      </c>
+      <c r="D5">
+        <v>32070788</v>
+      </c>
+      <c r="E5">
+        <v>2119</v>
+      </c>
+      <c r="F5">
+        <v>68419328</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>70737</v>
+      </c>
+      <c r="L5">
+        <v>33947</v>
+      </c>
+      <c r="M5">
+        <v>104684</v>
+      </c>
+      <c r="N5">
+        <v>68524022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>9112766</v>
+      </c>
+      <c r="D6">
+        <v>8958481</v>
+      </c>
+      <c r="E6">
+        <v>721</v>
+      </c>
+      <c r="F6">
+        <v>18071968</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>7791</v>
+      </c>
+      <c r="L6">
+        <v>2056</v>
+      </c>
+      <c r="M6">
+        <v>9847</v>
+      </c>
+      <c r="N6">
+        <v>18081817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>545531</v>
+      </c>
+      <c r="D7">
+        <v>562930</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1108461</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>271</v>
+      </c>
+      <c r="L7">
+        <v>549</v>
+      </c>
+      <c r="M7">
+        <v>820</v>
+      </c>
+      <c r="N7">
+        <v>1109316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>22265012</v>
+      </c>
+      <c r="D8">
+        <v>20325250</v>
+      </c>
+      <c r="E8">
+        <v>553</v>
+      </c>
+      <c r="F8">
+        <v>42590815</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>28605</v>
+      </c>
+      <c r="L8">
+        <v>7042</v>
+      </c>
+      <c r="M8">
+        <v>35647</v>
+      </c>
+      <c r="N8">
+        <v>42626476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>9027549</v>
+      </c>
+      <c r="D9">
+        <v>7792344</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>16819893</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>73032</v>
+      </c>
+      <c r="L9">
+        <v>33221</v>
+      </c>
+      <c r="M9">
+        <v>106253</v>
+      </c>
+      <c r="N9">
+        <v>16926162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>2458878</v>
+      </c>
+      <c r="D10">
+        <v>2352868</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>4811752</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>67459</v>
+      </c>
+      <c r="L10">
+        <v>18785</v>
+      </c>
+      <c r="M10">
+        <v>86244</v>
+      </c>
+      <c r="N10">
+        <v>4898000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>3904982</v>
+      </c>
+      <c r="D11">
+        <v>3548312</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>7453339</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>52836</v>
+      </c>
+      <c r="L11">
+        <v>14243</v>
+      </c>
+      <c r="M11">
+        <v>67079</v>
+      </c>
+      <c r="N11">
+        <v>7520418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>11256003</v>
+      </c>
+      <c r="D12">
+        <v>10202201</v>
+      </c>
+      <c r="E12">
+        <v>123</v>
+      </c>
+      <c r="F12">
+        <v>21458327</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3546</v>
+      </c>
+      <c r="L12">
+        <v>1319</v>
+      </c>
+      <c r="M12">
+        <v>4865</v>
+      </c>
+      <c r="N12">
+        <v>21463195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>24837243</v>
+      </c>
+      <c r="D13">
+        <v>24045264</v>
+      </c>
+      <c r="E13">
+        <v>4404</v>
+      </c>
+      <c r="F13">
+        <v>48886911</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>37044</v>
+      </c>
+      <c r="L13">
+        <v>12101</v>
+      </c>
+      <c r="M13">
+        <v>49145</v>
+      </c>
+      <c r="N13">
+        <v>48936056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>12202869</v>
+      </c>
+      <c r="D14">
+        <v>13085516</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>25288391</v>
+      </c>
+      <c r="G14">
+        <v>21874</v>
+      </c>
+      <c r="H14">
+        <v>1682</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>23556</v>
+      </c>
+      <c r="K14">
+        <v>63883</v>
+      </c>
+      <c r="L14">
+        <v>25865</v>
+      </c>
+      <c r="M14">
+        <v>89748</v>
+      </c>
+      <c r="N14">
+        <v>25401695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>26195768</v>
+      </c>
+      <c r="D15">
+        <v>23772022</v>
+      </c>
+      <c r="E15">
+        <v>1135</v>
+      </c>
+      <c r="F15">
+        <v>49968925</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>26482</v>
+      </c>
+      <c r="L15">
+        <v>9055</v>
+      </c>
+      <c r="M15">
+        <v>35537</v>
+      </c>
+      <c r="N15">
+        <v>50004467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>43940543</v>
+      </c>
+      <c r="D16">
+        <v>39542999</v>
+      </c>
+      <c r="E16">
+        <v>1645</v>
+      </c>
+      <c r="F16">
+        <v>83485187</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>101628</v>
+      </c>
+      <c r="L16">
+        <v>40791</v>
+      </c>
+      <c r="M16">
+        <v>142419</v>
+      </c>
+      <c r="N16">
+        <v>83627637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>925431</v>
+      </c>
+      <c r="D17">
+        <v>968312</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1893743</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>8907</v>
+      </c>
+      <c r="L17">
+        <v>3074</v>
+      </c>
+      <c r="M17">
+        <v>11981</v>
+      </c>
+      <c r="N17">
+        <v>1905724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>850667</v>
+      </c>
+      <c r="D18">
+        <v>868802</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1719469</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1432</v>
+      </c>
+      <c r="L18">
+        <v>600</v>
+      </c>
+      <c r="M18">
+        <v>2032</v>
+      </c>
+      <c r="N18">
+        <v>1721502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>362181</v>
+      </c>
+      <c r="D19">
+        <v>377795</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>739976</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>4869</v>
+      </c>
+      <c r="L19">
+        <v>1062</v>
+      </c>
+      <c r="M19">
+        <v>5931</v>
+      </c>
+      <c r="N19">
+        <v>745907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>577793</v>
+      </c>
+      <c r="D20">
+        <v>560422</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1138215</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>7223</v>
+      </c>
+      <c r="L20">
+        <v>1900</v>
+      </c>
+      <c r="M20">
+        <v>9123</v>
+      </c>
+      <c r="N20">
+        <v>1147338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>15946303</v>
+      </c>
+      <c r="D21">
+        <v>14890584</v>
+      </c>
+      <c r="E21">
+        <v>2146</v>
+      </c>
+      <c r="F21">
+        <v>30839033</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>34280</v>
+      </c>
+      <c r="L21">
+        <v>15237</v>
+      </c>
+      <c r="M21">
+        <v>49517</v>
+      </c>
+      <c r="N21">
+        <v>30888550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>10502868</v>
+      </c>
+      <c r="D22">
+        <v>9375422</v>
+      </c>
+      <c r="E22">
+        <v>415</v>
+      </c>
+      <c r="F22">
+        <v>19878705</v>
+      </c>
+      <c r="G22">
+        <v>240</v>
+      </c>
+      <c r="H22">
+        <v>124</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>364</v>
+      </c>
+      <c r="K22">
+        <v>115924</v>
+      </c>
+      <c r="L22">
+        <v>34623</v>
+      </c>
+      <c r="M22">
+        <v>150547</v>
+      </c>
+      <c r="N22">
+        <v>20029616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>23117744</v>
+      </c>
+      <c r="D23">
+        <v>20855740</v>
+      </c>
+      <c r="E23">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>43973529</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>88988</v>
+      </c>
+      <c r="L23">
+        <v>35567</v>
+      </c>
+      <c r="M23">
+        <v>124555</v>
+      </c>
+      <c r="N23">
+        <v>44098090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>200220</v>
+      </c>
+      <c r="D24">
+        <v>188836</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>389056</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1146</v>
+      </c>
+      <c r="L24">
+        <v>92</v>
+      </c>
+      <c r="M24">
+        <v>1238</v>
+      </c>
+      <c r="N24">
+        <v>390295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25">
+        <v>29574300</v>
+      </c>
+      <c r="D25">
+        <v>30155515</v>
+      </c>
+      <c r="E25">
+        <v>5074</v>
+      </c>
+      <c r="F25">
+        <v>59734889</v>
+      </c>
+      <c r="G25">
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>49</v>
+      </c>
+      <c r="K25">
+        <v>45199</v>
+      </c>
+      <c r="L25">
+        <v>13597</v>
+      </c>
+      <c r="M25">
+        <v>58796</v>
+      </c>
+      <c r="N25">
+        <v>59793734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26">
+        <v>1275694</v>
+      </c>
+      <c r="D26">
+        <v>1230212</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2505906</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3646</v>
+      </c>
+      <c r="L26">
+        <v>1350</v>
+      </c>
+      <c r="M26">
+        <v>4996</v>
+      </c>
+      <c r="N26">
+        <v>2510902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>3923492</v>
+      </c>
+      <c r="D27">
+        <v>3572029</v>
+      </c>
+      <c r="E27">
+        <v>151</v>
+      </c>
+      <c r="F27">
+        <v>7495672</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>66552</v>
+      </c>
+      <c r="L27">
+        <v>30772</v>
+      </c>
+      <c r="M27">
+        <v>97324</v>
+      </c>
+      <c r="N27">
+        <v>7592996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>76809778</v>
+      </c>
+      <c r="D28">
+        <v>64436122</v>
+      </c>
+      <c r="E28">
+        <v>7272</v>
+      </c>
+      <c r="F28">
+        <v>141253172</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>108701</v>
+      </c>
+      <c r="L28">
+        <v>40173</v>
+      </c>
+      <c r="M28">
+        <v>148874</v>
+      </c>
+      <c r="N28">
+        <v>141402047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29">
+        <v>34592448</v>
+      </c>
+      <c r="D29">
+        <v>32443796</v>
+      </c>
+      <c r="E29">
+        <v>1017</v>
+      </c>
+      <c r="F29">
+        <v>67037261</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>21</v>
+      </c>
+      <c r="K29">
+        <v>113342</v>
+      </c>
+      <c r="L29">
+        <v>39586</v>
+      </c>
+      <c r="M29">
+        <v>152928</v>
+      </c>
+      <c r="N29">
+        <v>67190210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30">
+        <v>146524</v>
+      </c>
+      <c r="D30">
+        <v>131464</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>277988</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>104</v>
+      </c>
+      <c r="L30">
+        <v>46</v>
+      </c>
+      <c r="M30">
+        <v>150</v>
+      </c>
+      <c r="N30">
+        <v>278138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31">
+        <v>305892</v>
+      </c>
+      <c r="D31">
+        <v>266194</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>572099</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>1790</v>
+      </c>
+      <c r="L31">
+        <v>1205</v>
+      </c>
+      <c r="M31">
+        <v>2995</v>
+      </c>
+      <c r="N31">
+        <v>575105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>58698</v>
+      </c>
+      <c r="D32">
+        <v>57861</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>116559</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>116592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>122184</v>
+      </c>
+      <c r="D33">
+        <v>105399</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>227583</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>12</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>227603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <v>7463731</v>
+      </c>
+      <c r="D34">
+        <v>6005703</v>
+      </c>
+      <c r="E34">
+        <v>829</v>
+      </c>
+      <c r="F34">
+        <v>13470263</v>
+      </c>
+      <c r="G34">
+        <v>27</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34">
+        <v>3845</v>
+      </c>
+      <c r="L34">
+        <v>1826</v>
+      </c>
+      <c r="M34">
+        <v>5671</v>
+      </c>
+      <c r="N34">
+        <v>13475971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <v>25372</v>
+      </c>
+      <c r="D35">
+        <v>24904</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>50276</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>145</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>145</v>
+      </c>
+      <c r="N35">
+        <v>50421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36">
+        <v>446353</v>
+      </c>
+      <c r="D36">
+        <v>494860</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>941293</v>
+      </c>
+      <c r="G36">
+        <v>122</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>137</v>
+      </c>
+      <c r="K36">
+        <v>295</v>
+      </c>
+      <c r="L36">
+        <v>58</v>
+      </c>
+      <c r="M36">
+        <v>353</v>
+      </c>
+      <c r="N36">
+        <v>941783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37">
+        <v>451966704</v>
+      </c>
+      <c r="D37">
+        <v>414912901</v>
+      </c>
+      <c r="E37">
+        <v>33673</v>
+      </c>
+      <c r="F37">
+        <v>866913278</v>
+      </c>
+      <c r="G37">
+        <v>22428</v>
+      </c>
+      <c r="H37">
+        <v>1920</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>24348</v>
+      </c>
+      <c r="K37">
+        <v>1232112</v>
+      </c>
+      <c r="L37">
+        <v>443332</v>
+      </c>
+      <c r="M37">
+        <v>1675444</v>
+      </c>
+      <c r="N37">
+        <v>868613070</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>